--- a/docs/_files/ida-resource-calculator.xlsx
+++ b/docs/_files/ida-resource-calculator.xlsx
@@ -736,23 +736,23 @@
       </c>
       <c r="B14" s="15">
         <f>'IDA-Compute'!C5</f>
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="C14" s="15">
         <f>'IDA-Compute'!C6</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" s="15">
         <f>'IDA-Compute'!C9</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E14" s="15">
         <f t="shared" ref="E14:E20" si="1">B14*D14</f>
-        <v>9</v>
+        <v>40.5</v>
       </c>
       <c r="F14" s="15">
         <f t="shared" ref="F14:F20" si="2">C14*D14</f>
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15">
@@ -761,23 +761,23 @@
       </c>
       <c r="B15" s="15">
         <f>'IDA-Compute'!B5</f>
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="C15" s="15">
         <f>'IDA-Compute'!B6</f>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="D15" s="15">
         <f>'IDA-Compute'!B9</f>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E15" s="15">
         <f t="shared" si="1"/>
-        <v>2.5</v>
+        <v>33</v>
       </c>
       <c r="F15" s="15">
         <f t="shared" si="2"/>
-        <v>12.5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16">
@@ -806,22 +806,22 @@
       <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="15">
-        <v>0.5</v>
+      <c r="B17" s="17">
+        <v>1.0</v>
       </c>
-      <c r="C17" s="15">
-        <v>2.0</v>
+      <c r="C17" s="17">
+        <v>2.5</v>
       </c>
       <c r="D17" s="16">
         <v>4.0</v>
       </c>
       <c r="E17" s="15">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F17" s="15">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -899,11 +899,11 @@
       <c r="D21" s="18"/>
       <c r="E21" s="19">
         <f t="shared" ref="E21:F21" si="3">sum(E14:E20)</f>
-        <v>21.5</v>
+        <v>85.5</v>
       </c>
       <c r="F21" s="19">
         <f t="shared" si="3"/>
-        <v>50.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23">
@@ -1076,10 +1076,10 @@
         <v>36</v>
       </c>
       <c r="B4" s="22">
-        <v>10.0</v>
+        <v>4.0</v>
       </c>
       <c r="C4" s="22">
-        <v>20.0</v>
+        <v>5.0</v>
       </c>
       <c r="D4" s="22">
         <v>30.0</v>
@@ -1112,10 +1112,10 @@
         <v>37</v>
       </c>
       <c r="B5" s="22">
-        <v>0.5</v>
+        <v>3.0</v>
       </c>
       <c r="C5" s="22">
-        <v>3.0</v>
+        <v>4.5</v>
       </c>
       <c r="D5" s="22">
         <v>3.0</v>
@@ -1148,10 +1148,10 @@
         <v>38</v>
       </c>
       <c r="B6" s="22">
-        <v>2.5</v>
+        <v>3.0</v>
       </c>
       <c r="C6" s="22">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D6" s="22">
         <v>3.25</v>
@@ -1185,11 +1185,11 @@
       </c>
       <c r="B7" s="10">
         <f t="shared" ref="B7:D7" si="1">B4*60*60</f>
-        <v>36000</v>
+        <v>14400</v>
       </c>
       <c r="C7" s="10">
         <f t="shared" si="1"/>
-        <v>72000</v>
+        <v>18000</v>
       </c>
       <c r="D7" s="10">
         <f t="shared" si="1"/>
@@ -1224,11 +1224,11 @@
       </c>
       <c r="B8" s="10">
         <f>_xlfn.CEILING.MATH(Summary!B10/B7)</f>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C8" s="10">
         <f>_xlfn.CEILING.MATH(Summary!B10/C7)</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D8" s="10">
         <f>_xlfn.CEILING.MATH(Summary!B10/D7)</f>
@@ -1263,11 +1263,11 @@
       </c>
       <c r="B9" s="29">
         <f t="shared" ref="B9:D9" si="2">IF(B8 = 1, 2,B8)</f>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C9" s="29">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D9" s="29">
         <f t="shared" si="2"/>
@@ -1302,11 +1302,11 @@
       </c>
       <c r="B10" s="10">
         <f t="shared" ref="B10:D10" si="3">B5*B9</f>
-        <v>2.5</v>
+        <v>33</v>
       </c>
       <c r="C10" s="10">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>40.5</v>
       </c>
       <c r="D10" s="10">
         <f t="shared" si="3"/>
@@ -1341,11 +1341,11 @@
       </c>
       <c r="B11" s="10">
         <f t="shared" ref="B11:D11" si="4">B6*B9</f>
-        <v>12.5</v>
+        <v>33</v>
       </c>
       <c r="C11" s="10">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D11" s="10">
         <f t="shared" si="4"/>
